--- a/PLANILHAS/negociacao.xlsx
+++ b/PLANILHAS/negociacao.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21108" windowHeight="13464"/>
+    <workbookView windowWidth="30720" windowHeight="13344"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="33">
   <si>
     <t>Data do Negócio</t>
   </si>
@@ -43,24 +43,24 @@
     <t>Valor</t>
   </si>
   <si>
+    <t>Venda</t>
+  </si>
+  <si>
+    <t>Mercado Fracionário</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>NU INVEST CORRETORA DE VALORES S.A.</t>
+  </si>
+  <si>
+    <t>CSMG3F</t>
+  </si>
+  <si>
     <t>27/09/2023</t>
   </si>
   <si>
-    <t>Venda</t>
-  </si>
-  <si>
-    <t>Mercado Fracionário</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>NU INVEST CORRETORA DE VALORES S.A.</t>
-  </si>
-  <si>
-    <t>CSMG3F</t>
-  </si>
-  <si>
     <t>SAPR11F</t>
   </si>
   <si>
@@ -101,18 +101,31 @@
   </si>
   <si>
     <t>25/07/2030</t>
+  </si>
+  <si>
+    <t>03/12/2021</t>
+  </si>
+  <si>
+    <t>Mercado à Vista</t>
+  </si>
+  <si>
+    <t>Nova Futura</t>
+  </si>
+  <si>
+    <t>ABEV3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="176" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="179" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="180" formatCode="_-&quot;R$&quot;* #,##0.00######_-;\-&quot;R$&quot;* #,##0.00######_-;_ \-;_-@_-"/>
+    <numFmt numFmtId="180" formatCode="dd/mm/yyyy;@"/>
+    <numFmt numFmtId="181" formatCode="_-&quot;R$&quot;* #,##0.00######_-;\-&quot;R$&quot;* #,##0.00######_-;_ \-;_-@_-"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -730,17 +743,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -749,10 +762,7 @@
     <xf numFmtId="58" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1290,8 +1300,8 @@
   <sheetPr/>
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23:I37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18" defaultRowHeight="14.4"/>
@@ -1304,7 +1314,8 @@
     <col min="6" max="6" width="14.7777777777778" style="1" customWidth="1"/>
     <col min="7" max="7" width="14.2222222222222" style="1" customWidth="1"/>
     <col min="8" max="8" width="14.8888888888889" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="18" style="1" customWidth="1"/>
+    <col min="9" max="32" width="18" style="1" customWidth="1"/>
+    <col min="33" max="16384" width="9" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="33.6" spans="1:9">
@@ -1337,23 +1348,23 @@
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:9">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="2">
+        <v>45196</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="G2" s="1">
         <v>8</v>
@@ -1367,19 +1378,19 @@
     </row>
     <row r="3" s="1" customFormat="1" spans="1:9">
       <c r="A3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="E3" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>15</v>
@@ -1396,19 +1407,19 @@
     </row>
     <row r="4" s="1" customFormat="1" spans="1:9">
       <c r="A4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="E4" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>15</v>
@@ -1425,19 +1436,19 @@
     </row>
     <row r="5" s="1" customFormat="1" spans="1:9">
       <c r="A5" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="E5" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>17</v>
@@ -1461,13 +1472,13 @@
         <v>16</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="E6" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>17</v>
@@ -1485,19 +1496,19 @@
     </row>
     <row r="7" s="1" customFormat="1" spans="1:9">
       <c r="A7" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="E7" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>17</v>
@@ -1521,13 +1532,13 @@
         <v>16</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="E8" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>20</v>
@@ -1550,13 +1561,13 @@
         <v>16</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="E9" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>21</v>
@@ -1572,20 +1583,20 @@
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="E11" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>17</v>
@@ -1602,20 +1613,20 @@
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="E12" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>17</v>
@@ -1632,20 +1643,20 @@
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="E13" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>17</v>
@@ -1661,24 +1672,21 @@
         <v>341.5</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="7"/>
-    </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="E15" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>21</v>
@@ -1695,20 +1703,20 @@
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="E16" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>21</v>
@@ -1725,20 +1733,20 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="D17" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="E17" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>21</v>
@@ -1755,20 +1763,20 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="D18" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="E18" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>21</v>
@@ -1784,17 +1792,61 @@
         <v>151.9</v>
       </c>
     </row>
+    <row r="19" spans="9:9">
+      <c r="I19" s="6"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G20" s="1">
+        <v>300</v>
+      </c>
+      <c r="H20" s="1">
+        <v>16.05</v>
+      </c>
+      <c r="I20" s="6">
+        <v>4815</v>
+      </c>
+    </row>
+    <row r="21" spans="9:9">
+      <c r="I21" s="6"/>
+    </row>
     <row r="22" spans="9:9">
       <c r="I22" s="6"/>
     </row>
-    <row r="25" spans="8:8">
+    <row r="23" spans="9:9">
+      <c r="I23" s="6"/>
+    </row>
+    <row r="24" spans="9:9">
+      <c r="I24" s="6"/>
+    </row>
+    <row r="25" spans="8:9">
       <c r="H25" s="6"/>
-    </row>
-    <row r="26" spans="8:8">
+      <c r="I25" s="6"/>
+    </row>
+    <row r="26" spans="8:9">
       <c r="H26" s="6"/>
-    </row>
-    <row r="27" spans="8:8">
+      <c r="I26" s="6"/>
+    </row>
+    <row r="27" spans="8:9">
       <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
     </row>
     <row r="28" spans="8:8">
       <c r="H28" s="6"/>
